--- a/ope.ed.gov/2001/arrests-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2001.xlsx
+++ b/ope.ed.gov/2001/arrests-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2001.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - On-campus Student Housing Facilities</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Averett University</t>
@@ -433,34 +430,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2001.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>2396.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -468,19 +489,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231420.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
-        <v>2396.0</v>
+        <v>222.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -497,19 +518,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B4">
-        <v>366793.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>222.0</v>
+        <v>851.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -526,25 +547,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>851.0</v>
+        <v>1260.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
       </c>
       <c s="1" r="H5">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I5">
         <v>0.0</v>
@@ -555,25 +576,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
-        <v>1260.0</v>
+        <v>5388.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
       </c>
       <c s="1" r="H6">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I6">
         <v>0.0</v>
@@ -584,28 +605,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>5388.0</v>
+        <v>7489.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
       </c>
       <c s="1" r="H7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -613,28 +634,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
-        <v>7489.0</v>
+        <v>1304.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
       </c>
       <c s="1" r="H8">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -642,19 +663,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
-        <v>1304.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -671,19 +692,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231970.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
-        <v>645.0</v>
+        <v>1079.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -700,28 +721,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
-        <v>1079.0</v>
+        <v>920.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
       </c>
       <c s="1" r="H11">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I11">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -729,28 +750,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
-        <v>920.0</v>
+        <v>24897.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
       </c>
       <c s="1" r="H12">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I12">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -758,28 +779,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
-        <v>24897.0</v>
+        <v>1026.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
       </c>
       <c s="1" r="H13">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I13">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -787,19 +808,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
-        <v>1026.0</v>
+        <v>5787.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -808,7 +829,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="I14">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -816,28 +837,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>5787.0</v>
+        <v>1091.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
       </c>
       <c s="1" r="H15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I15">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -845,28 +866,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>1091.0</v>
+        <v>15562.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
       </c>
       <c s="1" r="H16">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="I16">
-        <v>13.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +898,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
         <v>15562.0</v>
@@ -892,10 +913,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H17">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I17">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -903,19 +924,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>15562.0</v>
+        <v>648.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -932,19 +953,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231837.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>648.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -961,19 +982,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>635.0</v>
+        <v>6162.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -990,28 +1011,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>6162.0</v>
+        <v>4114.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
       </c>
       <c s="1" r="H21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="22">
@@ -1019,28 +1040,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>4114.0</v>
+        <v>1937.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
       </c>
       <c s="1" r="H22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I22">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1048,25 +1069,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>1937.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
       </c>
       <c s="1" r="H23">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I23">
         <v>0.0</v>
@@ -1077,19 +1098,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>202.0</v>
+        <v>1564.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1106,19 +1127,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>1564.0</v>
+        <v>3475.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1135,28 +1156,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232706.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>3475.0</v>
+        <v>6721.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
       </c>
       <c s="1" r="H26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1164,28 +1185,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232937.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>6721.0</v>
+        <v>19627.0</v>
       </c>
       <c s="1" r="G27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H27">
         <v>1.0</v>
       </c>
       <c s="1" r="I27">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -1193,28 +1214,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232982.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>19627.0</v>
+        <v>9142.0</v>
       </c>
       <c s="1" r="G28">
         <v>1.0</v>
       </c>
       <c s="1" r="H28">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="I28">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -1222,28 +1243,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>9142.0</v>
+        <v>727.0</v>
       </c>
       <c s="1" r="G29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H29">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1251,19 +1272,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>727.0</v>
+        <v>1150.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1280,19 +1301,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B31">
-        <v>233295.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>1150.0</v>
+        <v>2689.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1309,25 +1330,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231651.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>2689.0</v>
+        <v>1790.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
       </c>
       <c s="1" r="H32">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="I32">
         <v>0.0</v>
@@ -1338,28 +1359,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233426.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>1790.0</v>
+        <v>555.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
       </c>
       <c s="1" r="H33">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I33">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -1367,28 +1388,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>555.0</v>
+        <v>2451.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
       </c>
       <c s="1" r="H34">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I34">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -1396,19 +1417,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>2451.0</v>
+        <v>445.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -1425,19 +1446,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233611.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>445.0</v>
+        <v>738.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -1454,28 +1475,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233718.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>738.0</v>
+        <v>1480.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
       </c>
       <c s="1" r="H37">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I37">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -1483,28 +1504,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233897.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>1480.0</v>
+        <v>339.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
       </c>
       <c s="1" r="H38">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I38">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1512,19 +1533,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>339.0</v>
+        <v>4481.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -1541,28 +1562,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B40">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>4481.0</v>
+        <v>4369.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
       </c>
       <c s="1" r="H40">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -1570,28 +1591,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
-        <v>4369.0</v>
+        <v>22739.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
       </c>
       <c s="1" r="H41">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I41">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -1602,13 +1623,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
         <v>22739.0</v>
@@ -1617,10 +1638,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H42">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,28 +1649,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B43">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>22739.0</v>
+        <v>25001.0</v>
       </c>
       <c s="1" r="G43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H43">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="I43">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -1660,25 +1681,25 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
         <v>25001.0</v>
       </c>
       <c s="1" r="G44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H44">
-        <v>43.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I44">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1686,25 +1707,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B45">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>25001.0</v>
+        <v>969.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
       </c>
       <c s="1" r="H45">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I45">
         <v>0.0</v>
@@ -1715,19 +1736,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B46">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>969.0</v>
+        <v>1311.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -1736,7 +1757,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I46">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="47">
@@ -1744,28 +1765,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B47">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>1311.0</v>
+        <v>28203.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
       </c>
       <c s="1" r="H47">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="I47">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="48">
@@ -1776,13 +1797,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
         <v>28203.0</v>
@@ -1791,10 +1812,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H48">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I48">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1805,13 +1826,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
         <v>28203.0</v>
@@ -1834,13 +1855,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
         <v>28203.0</v>
@@ -1860,28 +1881,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B51">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>28203.0</v>
+        <v>4638.0</v>
       </c>
       <c s="1" r="G51">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H51">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I51">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
@@ -1889,28 +1910,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B52">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>4638.0</v>
+        <v>1712.0</v>
       </c>
       <c s="1" r="G52">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H52">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I52">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -1918,28 +1939,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234164.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>1712.0</v>
+        <v>1412.0</v>
       </c>
       <c s="1" r="G53">
         <v>1.0</v>
       </c>
       <c s="1" r="H53">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="I53">
-        <v>3.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="54">
@@ -1947,28 +1968,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234173.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>1412.0</v>
+        <v>2072.0</v>
       </c>
       <c s="1" r="G54">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H54">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I54">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1976,56 +1997,27 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B55">
-        <v>234207.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>2072.0</v>
+        <v>238.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
       </c>
       <c s="1" r="H55">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I55">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c s="1" r="A56">
-        <v>2001.0</v>
-      </c>
-      <c s="1" r="B56">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C56">
-        <v>116</v>
-      </c>
-      <c s="1" r="D56">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E56">
-        <v>117</v>
-      </c>
-      <c s="1" r="F56">
-        <v>238.0</v>
-      </c>
-      <c s="1" r="G56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I56">
         <v>0.0</v>
       </c>
     </row>
